--- a/model/System Model/System Model.xlsx
+++ b/model/System Model/System Model.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\IIB Project\iib-project\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\IIB Project\System Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D27BFD8-D0CB-400F-98F1-90D0E582987D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189301D1-0170-43BE-A3D1-ABB88037BFA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2E20499A-CF7D-441A-9B23-3C755E67DBA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{2E20499A-CF7D-441A-9B23-3C755E67DBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="System Blocks" sheetId="2" r:id="rId1"/>
-    <sheet name="Link Budget &amp; Noise Margin" sheetId="1" r:id="rId2"/>
-    <sheet name="RX Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Link Budget" sheetId="1" r:id="rId2"/>
+    <sheet name="Noise Figure" sheetId="5" r:id="rId3"/>
+    <sheet name="Lime Units" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
-  <si>
-    <t>TX Power (dBm)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Distance (km)</t>
   </si>
@@ -49,78 +47,18 @@
     <t>Misc Loss (dB)</t>
   </si>
   <si>
-    <t>RX Power (dBm)</t>
-  </si>
-  <si>
-    <t>TX Power (mW)</t>
-  </si>
-  <si>
     <t>Link Budget</t>
   </si>
   <si>
-    <t>Senario</t>
-  </si>
-  <si>
     <t>Close</t>
   </si>
   <si>
     <t>Far</t>
   </si>
   <si>
-    <t>Min Sensitivity (dBm)</t>
-  </si>
-  <si>
     <t>Reciever Design</t>
   </si>
   <si>
-    <t>TX Antenna Gain (dB)</t>
-  </si>
-  <si>
-    <t>TX Coupling Loss (dB)</t>
-  </si>
-  <si>
-    <t>RX Antenna Gain (dB)</t>
-  </si>
-  <si>
-    <t>RX BPF Insertion Loss (dB)</t>
-  </si>
-  <si>
-    <t>RX LNA Gain (dB)</t>
-  </si>
-  <si>
-    <t>RX Coupling Loss (dB)</t>
-  </si>
-  <si>
-    <t>Required Link Margin (dB)</t>
-  </si>
-  <si>
-    <t>Antenna Noise Temperature (K)</t>
-  </si>
-  <si>
-    <t>Input Signal Power (dBm)</t>
-  </si>
-  <si>
-    <t>Input Noise Power (dBm)</t>
-  </si>
-  <si>
-    <t>BPF Noise Figure (dB)</t>
-  </si>
-  <si>
-    <t>LNA Noise Figure (dB)</t>
-  </si>
-  <si>
-    <t>SDR Noise Figure (dB)</t>
-  </si>
-  <si>
-    <t>Output SNR (dB)</t>
-  </si>
-  <si>
-    <t>Input SNR (dB)</t>
-  </si>
-  <si>
-    <t>RX Input Power (dBm)</t>
-  </si>
-  <si>
     <t>RX1</t>
   </si>
   <si>
@@ -136,24 +74,149 @@
     <t>SNR (dB)</t>
   </si>
   <si>
-    <t>Reciever Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Noise Margin</t>
+  </si>
+  <si>
+    <t>Transmitter</t>
+  </si>
+  <si>
+    <t>Propogation</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>dBm</t>
+  </si>
+  <si>
+    <t>Power In (mW)</t>
+  </si>
+  <si>
+    <t>Power In (dBm)</t>
+  </si>
+  <si>
+    <t>Antenna Gain (dB)</t>
+  </si>
+  <si>
+    <t>Coupling Loss (dB)</t>
+  </si>
+  <si>
+    <t>RX Antenna</t>
+  </si>
+  <si>
+    <t>Power Out (dBm)</t>
+  </si>
+  <si>
+    <t>RF Front End</t>
+  </si>
+  <si>
+    <t>LNA Gain (dB)</t>
+  </si>
+  <si>
+    <t>BPF Insertion Loss (dB)</t>
+  </si>
+  <si>
+    <t>LimeSDR</t>
+  </si>
+  <si>
+    <t>LNA/TIA/PGA Gain (dB)</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Noise Figure</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Noise Temperature</t>
+  </si>
+  <si>
+    <t>LNA</t>
+  </si>
+  <si>
+    <t>BPF</t>
+  </si>
+  <si>
+    <t>Lime SDR</t>
+  </si>
+  <si>
+    <t>Reciever Front End</t>
+  </si>
+  <si>
+    <t>Input Noise Power</t>
+  </si>
+  <si>
+    <t>Outut Noise Power</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Antenna Brightness</t>
+  </si>
+  <si>
+    <t>Signal Power (dBm)</t>
+  </si>
+  <si>
+    <t>Noise Power (dBm)</t>
+  </si>
+  <si>
+    <t>Input Power (dBm)</t>
+  </si>
+  <si>
+    <t>Gain (dB)</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>10Log(P)</t>
+  </si>
+  <si>
+    <t>Power P</t>
+  </si>
+  <si>
+    <t>Lime ADC Units</t>
+  </si>
+  <si>
+    <t>Signal Power Measurements</t>
+  </si>
+  <si>
+    <t>Noise Power Measurements</t>
+  </si>
+  <si>
+    <t>Est. Noise Power (dBm)</t>
+  </si>
+  <si>
+    <t>Reffered to Input:</t>
+  </si>
+  <si>
+    <t>System Block Diagram</t>
+  </si>
+  <si>
+    <t>System Signal to Noise Ratio</t>
+  </si>
+  <si>
+    <t>Equivalent System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +273,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,18 +297,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -415,10 +522,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -431,8 +540,209 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -444,67 +754,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -513,169 +791,501 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,13 +1311,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -723,7 +1333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="952500"/>
+          <a:off x="1828800" y="962025"/>
           <a:ext cx="1962150" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -755,18 +1365,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Gain = +16 dBi</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Beam Width = 23 deg</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -794,7 +1392,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Freq = 2400 - 2483 MHz</a:t>
+            <a:t>Res Freq = 2400 - 2483 MHz</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
@@ -803,7 +1401,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Noise Temperature = 290K</a:t>
+            <a:t>Gain = +16 dBi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Beam Width = 23 deg</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Antenna Temperature = 290K</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -812,16 +1422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -837,7 +1447,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="952500"/>
+          <a:off x="6715125" y="962025"/>
           <a:ext cx="1962150" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -914,6 +1524,40 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NF = 1.6 dB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t>Rejection = 30 dB</a:t>
@@ -928,13 +1572,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -947,12 +1591,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="1524000"/>
+          <a:off x="3790950" y="1533525"/>
           <a:ext cx="485775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -988,7 +1632,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1001,12 +1645,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6238875" y="1533525"/>
-          <a:ext cx="485775" cy="0"/>
+          <a:ext cx="476250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1034,16 +1681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1059,7 +1706,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715125" y="952500"/>
+          <a:off x="4276725" y="962025"/>
           <a:ext cx="1962150" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1333,6 +1980,1217 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="Group 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9061A79-35F1-4617-A61A-1E4784EC12BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5438776" y="638175"/>
+          <a:ext cx="7639049" cy="2828925"/>
+          <a:chOff x="10944226" y="771525"/>
+          <a:chExt cx="6067424" cy="2714625"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4CC005-C567-4C49-A544-D53CFFC48B55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10944226" y="771525"/>
+            <a:ext cx="6067424" cy="2714625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="Group 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2125C0BE-6198-485A-903F-16328B3F0322}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10991634" y="968444"/>
+            <a:ext cx="5887972" cy="869881"/>
+            <a:chOff x="6337972" y="952500"/>
+            <a:chExt cx="5826829" cy="999960"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="3" name="Group 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2B38C6-6107-49BD-8907-29FCF1D34BCA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6337972" y="952500"/>
+              <a:ext cx="5401363" cy="999960"/>
+              <a:chOff x="6337972" y="952500"/>
+              <a:chExt cx="5401364" cy="999960"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="TextBox 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE96AE2-416A-4E80-A006-489D7C5181B4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7324724" y="952501"/>
+                <a:ext cx="952501" cy="989010"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
+                  <a:t>LNA</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>G1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t> = 23 dB</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>F1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t> = 2.62 dB</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>T1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t> = 240 K</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6" name="TextBox 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CA8A1C-BBA6-4CD8-ABBD-DCA8B0A08EE3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8839200" y="952500"/>
+                <a:ext cx="952501" cy="999960"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent4"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent4"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
+                  <a:t>BPF</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>G2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t> = -1.6 dB</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>F2 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t>= 1.6 dB</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>T2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t> = 129 K</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324B9959-C99B-4777-A566-882F9DBCBCD0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10363200" y="952500"/>
+                <a:ext cx="952501" cy="989011"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
+                  <a:t>LimeSDR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>G3 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t>= 55 dB</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                  <a:t>F3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                  <a:t> = 3.5 dB</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>T3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t> = 360 K</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="8" name="Group 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECDD13E-0A05-44B2-800C-40EF9C235C2C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="6337972" y="1262972"/>
+                <a:ext cx="5401364" cy="314325"/>
+                <a:chOff x="6337972" y="1262972"/>
+                <a:chExt cx="5401364" cy="314325"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="13" name="TextBox 12">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885BC0FB-A57F-44D2-B089-11C0463FE9B9}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="6337972" y="1262972"/>
+                  <a:ext cx="591132" cy="314325"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t>kT</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="900"/>
+                    <a:t>A</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t>B</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268644F5-1608-4C47-8AAF-D7D0D6D84638}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvCxnSpPr>
+                  <a:endCxn id="5" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="6866047" y="1437842"/>
+                  <a:ext cx="458677" cy="9165"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0ED961-C21E-41E3-A7DE-E71E0AF9CB0E}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="5" idx="3"/>
+                  <a:endCxn id="6" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8277225" y="1447007"/>
+                  <a:ext cx="561975" cy="5474"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C37940-D998-4DA1-8B08-87751225756E}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="6" idx="3"/>
+                  <a:endCxn id="7" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="9791701" y="1447006"/>
+                  <a:ext cx="571499" cy="5475"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3895DF26-FBA6-45ED-8602-4CD3AE857919}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="7" idx="3"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11315702" y="1447006"/>
+                  <a:ext cx="423634" cy="1785"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFC26D1-6746-4686-A4E2-800F18B3B767}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11783801" y="1291862"/>
+              <a:ext cx="381000" cy="314325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>N</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="900"/>
+                <a:t>0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="53" name="Group 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022B197B-06F8-46DF-AA72-4A2CE44A7D40}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12458701" y="2362200"/>
+            <a:ext cx="3048760" cy="895350"/>
+            <a:chOff x="12449176" y="2000250"/>
+            <a:chExt cx="3048760" cy="895350"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5AA7B8-D2DE-49A5-B442-B162899681D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13439776" y="2000250"/>
+              <a:ext cx="1190624" cy="895350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1200" b="1"/>
+                <a:t>RF Front End</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                <a:t>G</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                <a:t> = 76.4 dB</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                <a:t>F</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                <a:t> = 2.65 dB</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+                <a:t>T</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+                <a:t> = 243 K</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7289B70-1C7D-46A3-9B0B-A8DDD07D614B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14639926" y="2420962"/>
+              <a:ext cx="428079" cy="1553"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextBox 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D00824F-6C6E-4172-BBFE-86A6B5272E61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15112938" y="2286000"/>
+              <a:ext cx="384998" cy="273436"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>N</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="900"/>
+                <a:t>0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="TextBox 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3A4BF5-33C0-458E-88C3-377A8C887113}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12449176" y="2324100"/>
+              <a:ext cx="597335" cy="273436"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>kT</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="900"/>
+                <a:t>A</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>B</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53B66DE-E12E-418E-A6DC-B0E2B61B45A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12982792" y="2476222"/>
+              <a:ext cx="463490" cy="7973"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Arrow: Down 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815EC80B-B58D-4754-9D15-AC5E87D75BB7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13801725" y="1971675"/>
+            <a:ext cx="381000" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1078068</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90987</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071AD80F-CBD0-481F-B7C5-05FBA84984CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3171826" y="4248150"/>
+          <a:ext cx="8012267" cy="5291637"/>
+          <a:chOff x="3609976" y="4343400"/>
+          <a:chExt cx="8212292" cy="5291637"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3B4D17-EFC4-41AB-8C1F-20CC9C41E612}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3609976" y="4343400"/>
+            <a:ext cx="8212292" cy="5291637"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9A018D-3F70-4A56-8475-5872BD646B9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7191375" y="7562850"/>
+            <a:ext cx="1739319" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" b="1" i="1"/>
+              <a:t>Y = 0.9767 X + 52.9106</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1638,24 +3496,24 @@
   <dimension ref="D2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1669,353 +3527,539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C58272F-101F-4B99-AF78-72AA6E441E3F}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="37"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="G2" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27">
         <v>100</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="28">
         <v>100</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="30">
-        <v>290</v>
-      </c>
-      <c r="I5" s="27">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="F5" s="72">
+        <v>100</v>
+      </c>
+      <c r="G5" s="80">
+        <v>100</v>
+      </c>
+      <c r="H5" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="29">
         <f>10*LOG(C5,10)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="25">
         <f>10*LOG(D5,10)</f>
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="73">
+        <f>10*LOG(F5,10)</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="81">
+        <f>10*LOG(G5,10)</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="25">
+        <f>10*LOG(H5,10)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20">
+        <v>3</v>
+      </c>
+      <c r="F7" s="74">
+        <v>3</v>
+      </c>
+      <c r="G7" s="82">
+        <v>3</v>
+      </c>
+      <c r="H7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="82">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="31">
+        <f>C6+C7-C8</f>
         <v>22</v>
       </c>
-      <c r="H6" s="31">
-        <f>10*LOG(1.38E-23*1000*15360000*H5)</f>
-        <v>-102.11331700004314</v>
-      </c>
-      <c r="I6" s="28">
-        <f>10*LOG(1.38E-23*1000*15360000*I5)</f>
-        <v>-102.11331700004314</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="D9" s="21">
+        <f>D6+D7-D8</f>
+        <v>22</v>
+      </c>
+      <c r="F9" s="75">
+        <f>F6+F7-F8</f>
+        <v>22</v>
+      </c>
+      <c r="G9" s="83">
+        <f>G6+G7-G8</f>
+        <v>22</v>
+      </c>
+      <c r="H9" s="21">
+        <f>H6+H7-H8</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="20"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>30</v>
+      </c>
+      <c r="F11" s="72">
+        <v>25.617000000000001</v>
+      </c>
+      <c r="G11" s="80">
+        <v>25.821000000000002</v>
+      </c>
+      <c r="H11" s="28">
+        <v>25.597000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2400</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="74">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="82">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32">
+        <f>20*LOG10(C11*1000)+20*LOG10(C12*1000000)-147.558</f>
+        <v>100.04622483423213</v>
+      </c>
+      <c r="D13" s="33">
+        <f>20*LOG10(D11*1000)+20*LOG10(D12*1000000)-147.558</f>
+        <v>129.58864992862539</v>
+      </c>
+      <c r="F13" s="76">
+        <f>20*LOG10(F11*1000)+20*LOG10(F12*1000000)-147.558</f>
+        <v>128.21679019975687</v>
+      </c>
+      <c r="G13" s="84">
+        <f>20*LOG10(G11*1000)+20*LOG10(G12*1000000)-147.558</f>
+        <v>128.28568598793856</v>
+      </c>
+      <c r="H13" s="33">
+        <f>20*LOG10(H11*1000)+20*LOG10(H12*1000000)-147.558</f>
+        <v>128.21000620313123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="77">
+        <v>0</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="24"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="29">
+        <f>C9-C13</f>
+        <v>-78.046224834232135</v>
+      </c>
+      <c r="D16" s="25">
+        <f>D9-D13</f>
+        <v>-107.58864992862539</v>
+      </c>
+      <c r="F16" s="73">
+        <f>F9-F13</f>
+        <v>-106.21679019975687</v>
+      </c>
+      <c r="G16" s="81">
+        <f>G9-G13</f>
+        <v>-106.28568598793856</v>
+      </c>
+      <c r="H16" s="25">
+        <f>H9-H13</f>
+        <v>-106.21000620313123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="30">
+        <v>16</v>
+      </c>
+      <c r="D17" s="20">
+        <v>16</v>
+      </c>
+      <c r="F17" s="74">
+        <v>16</v>
+      </c>
+      <c r="G17" s="82">
+        <v>16</v>
+      </c>
+      <c r="H17" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29">
+        <f>C16+C17</f>
+        <v>-62.046224834232135</v>
+      </c>
+      <c r="D18" s="25">
+        <f>D16+D17</f>
+        <v>-91.588649928625387</v>
+      </c>
+      <c r="F18" s="73">
+        <f>F16+F17</f>
+        <v>-90.216790199756872</v>
+      </c>
+      <c r="G18" s="81">
+        <f>G16+G17</f>
+        <v>-90.285685987938564</v>
+      </c>
+      <c r="H18" s="25">
+        <f>H16+H17</f>
+        <v>-90.210006203131229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="24"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="29">
+        <f>C18</f>
+        <v>-62.046224834232135</v>
+      </c>
+      <c r="D20" s="25">
+        <f>D18</f>
+        <v>-91.588649928625387</v>
+      </c>
+      <c r="F20" s="73">
+        <f>F18</f>
+        <v>-90.216790199756872</v>
+      </c>
+      <c r="G20" s="81">
+        <f>G18</f>
+        <v>-90.285685987938564</v>
+      </c>
+      <c r="H20" s="25">
+        <f>H18</f>
+        <v>-90.210006203131229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="30">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20">
+        <v>23</v>
+      </c>
+      <c r="F21" s="74">
+        <v>23</v>
+      </c>
+      <c r="G21" s="82">
+        <v>23</v>
+      </c>
+      <c r="H21" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1.6</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="F22" s="74">
+        <v>1.6</v>
+      </c>
+      <c r="G22" s="82">
+        <v>1.6</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="42">
-        <f>C16</f>
-        <v>-61.046224834232135</v>
-      </c>
-      <c r="I7" s="28">
-        <f>D16</f>
-        <v>-90.588649928625387</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="C23" s="30">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="74">
+        <v>1</v>
+      </c>
+      <c r="G23" s="82">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="29">
+        <f>C20+C21-C22-C23</f>
+        <v>-41.646224834232136</v>
+      </c>
+      <c r="D24" s="25">
+        <f>D20+D21-D22-D23</f>
+        <v>-71.188649928625381</v>
+      </c>
+      <c r="F24" s="73">
+        <f>F20+F21-F22-F23</f>
+        <v>-69.816790199756866</v>
+      </c>
+      <c r="G24" s="81">
+        <f>G20+G21-G22-G23</f>
+        <v>-69.885685987938558</v>
+      </c>
+      <c r="H24" s="25">
+        <f>H20+H21-H22-H23</f>
+        <v>-69.810006203131223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="33">
-        <f>H7-H6</f>
-        <v>41.067092165811005</v>
-      </c>
-      <c r="I8" s="38">
-        <f>I7-I6</f>
-        <v>11.524667071417753</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="24"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="29">
+        <f>C24</f>
+        <v>-41.646224834232136</v>
+      </c>
+      <c r="D26" s="25">
+        <f>D24</f>
+        <v>-71.188649928625381</v>
+      </c>
+      <c r="F26" s="73">
+        <f>F24</f>
+        <v>-69.816790199756866</v>
+      </c>
+      <c r="G26" s="81">
+        <f>G24</f>
+        <v>-69.885685987938558</v>
+      </c>
+      <c r="H26" s="25">
+        <f>H24</f>
+        <v>-69.810006203131223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="30">
+        <v>55</v>
+      </c>
+      <c r="D27" s="20">
+        <v>55</v>
+      </c>
+      <c r="F27" s="74">
+        <v>55</v>
+      </c>
+      <c r="G27" s="82">
+        <v>55</v>
+      </c>
+      <c r="H27" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2400</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2400</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="32">
-        <v>2.62</v>
-      </c>
-      <c r="I11" s="29">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="22">
-        <f>20*LOG10(C10*1000)+20*LOG10(C11*1000000)-147.558</f>
-        <v>100.04622483423213</v>
-      </c>
-      <c r="D12" s="21">
-        <f>20*LOG10(D10*1000)+20*LOG10(D11*1000000)-147.558</f>
-        <v>129.58864992862539</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="I12" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="39">
-        <f>H8-H10-H11-H12</f>
-        <v>34.947092165811007</v>
-      </c>
-      <c r="I13" s="38">
-        <f>I8-I11-I12</f>
-        <v>5.4046670714177516</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="11">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="40">
-        <f>C6+C7-C8-C12+C15</f>
-        <v>-61.046224834232135</v>
-      </c>
-      <c r="D16" s="41">
-        <f>D6+D7-D8-D12+D15</f>
-        <v>-90.588649928625387</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="13">
-        <v>23</v>
-      </c>
-      <c r="D19" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="20">
-        <f>C16-C18+C19-C20</f>
-        <v>-42.646224834232136</v>
-      </c>
-      <c r="D21" s="23">
-        <f>D16-D18+D19-D20</f>
-        <v>-72.188649928625381</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="20">
-        <f>C21-C23</f>
-        <v>-45.646224834232136</v>
-      </c>
-      <c r="D24" s="23">
-        <f>D21-D23</f>
-        <v>-75.188649928625381</v>
+      <c r="C28" s="37">
+        <f>C26+C27</f>
+        <v>13.353775165767864</v>
+      </c>
+      <c r="D28" s="26">
+        <f>D26+D27</f>
+        <v>-16.188649928625381</v>
+      </c>
+      <c r="F28" s="79">
+        <f>F26+F27</f>
+        <v>-14.816790199756866</v>
+      </c>
+      <c r="G28" s="87">
+        <f>G26+G27</f>
+        <v>-14.885685987938558</v>
+      </c>
+      <c r="H28" s="26">
+        <f>H26+H27</f>
+        <v>-14.810006203131223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2023,555 +4067,1064 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58112840-0D4D-4BF1-B983-15FAC19D934D}">
-  <dimension ref="B3:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DD661-5A70-43C1-A29A-3078B8E22ACC}">
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="161" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="H3" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="N3" s="62" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="54">
+        <f>POWER(10, 0.1*E6)</f>
+        <v>199.52623149688819</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="18">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="54">
+        <f>POWER(10, 0.1*E7)</f>
+        <v>1.8281002161427427</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="18">
+        <v>2.62</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="55">
+        <f>290*(C7-1)</f>
+        <v>240.14906268139538</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="54">
+        <f>POWER(10, 0.1*E10)</f>
+        <v>0.69183097091893642</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="18">
+        <v>-1.6</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="54">
+        <f>POWER(10, 0.1*E11)</f>
+        <v>1.4454397707459277</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="55">
+        <f>290*(C11-1)</f>
+        <v>129.17753351631902</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="15"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="43"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="54">
+        <f>POWER(10, 0.1*E14)</f>
+        <v>316227.7660168382</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="18">
+        <v>55</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="54">
+        <f>POWER(10, 0.1*E15)</f>
+        <v>2.2387211385683399</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="57">
+        <f>290*(C15-1)</f>
+        <v>359.22913018481859</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="55">
+        <f>POWER(10, 0.1*E21)</f>
+        <v>43651583.224016666</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="55">
+        <f>E6+E10+E14</f>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="68">
+        <f>C7+((C11-1)/C6)+((C15-1)/(C10*C6))</f>
+        <v>1.8393064447800593</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="68">
+        <f>10*LOG10(C22)</f>
+        <v>2.6465409258207488</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="57">
+        <f>290*(C22-1)</f>
+        <v>243.3988689862172</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="I26" s="162" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="45"/>
+      <c r="I27" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="65">
+        <v>290</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="46"/>
+      <c r="I28" s="93">
         <v>1</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="51">
-        <v>25.617000000000001</v>
-      </c>
-      <c r="D6" s="54">
-        <f>I22</f>
-        <v>-70.816790199756866</v>
-      </c>
-      <c r="E6" s="57">
-        <f>O14</f>
-        <v>6.7765268002862662</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="11">
-        <v>100</v>
-      </c>
-      <c r="J6" s="11">
-        <v>100</v>
-      </c>
-      <c r="K6" s="5">
-        <v>100</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="30">
-        <v>290</v>
-      </c>
-      <c r="P6" s="30">
-        <v>290</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="53">
-        <v>25.831</v>
-      </c>
-      <c r="D7" s="55">
-        <f>J22</f>
-        <v>-70.889049222565149</v>
-      </c>
-      <c r="E7" s="58">
-        <f>P14</f>
-        <v>6.704267777477984</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <f>10*LOG(I6,10)</f>
-        <v>20</v>
-      </c>
-      <c r="J7" s="12">
-        <f>10*LOG(J6,10)</f>
-        <v>20</v>
-      </c>
-      <c r="K7" s="10">
-        <f>10*LOG(K6,10)</f>
-        <v>20</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="31">
-        <f>10*LOG(1.38E-23*1000*15360000*O6)</f>
-        <v>-102.11331700004314</v>
-      </c>
-      <c r="P7" s="31">
-        <f>10*LOG(1.38E-23*1000*15360000*P6)</f>
-        <v>-102.11331700004314</v>
-      </c>
-      <c r="Q7" s="28">
-        <f>10*LOG(1.38E-23*1000*15360000*Q6)</f>
-        <v>-102.11331700004314</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14">
-        <v>25.597000000000001</v>
-      </c>
-      <c r="D8" s="56">
-        <f>K22</f>
-        <v>-70.810006203131223</v>
-      </c>
-      <c r="E8" s="59">
-        <f>Q14</f>
-        <v>6.7833107969119091</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="13">
-        <v>6</v>
-      </c>
-      <c r="J8" s="13">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6">
-        <v>6</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="42">
-        <f>I17</f>
-        <v>-89.216790199756872</v>
-      </c>
-      <c r="P8" s="31">
-        <f>J17</f>
-        <v>-89.289049222565154</v>
-      </c>
-      <c r="Q8" s="28">
-        <f>K17</f>
-        <v>-89.210006203131229</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="J28" s="100">
+        <f>'Link Budget'!F28</f>
+        <v>-14.816790199756866</v>
+      </c>
+      <c r="K28" s="95">
+        <f>E30</f>
+        <v>-23.169775640620504</v>
+      </c>
+      <c r="L28" s="101">
+        <f>J28-K28</f>
+        <v>8.3529854408636375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="91">
+        <f>(1.38E-23)*C28*15000000*1000</f>
+        <v>6.0030000000000011E-11</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="92">
+        <f>10*LOG10(C29)</f>
+        <v>-102.21631656644126</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="93">
+        <v>2</v>
+      </c>
+      <c r="J29" s="100">
+        <f>'Link Budget'!G28</f>
+        <v>-14.885685987938558</v>
+      </c>
+      <c r="K29" s="95">
+        <f>E30</f>
+        <v>-23.169775640620504</v>
+      </c>
+      <c r="L29" s="101">
+        <f t="shared" ref="L29:L30" si="0">J29-K29</f>
+        <v>8.2840896526819456</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="66">
+        <f>(1.38E-23)*(C28+C23)*15000000*C21*1000</f>
+        <v>4.8197269600776822E-3</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="64">
+        <f>10*LOG10(C30)</f>
+        <v>-23.169775640620504</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="94">
         <v>3</v>
       </c>
-      <c r="J9" s="14">
-        <v>3</v>
-      </c>
-      <c r="K9" s="7">
-        <v>3</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="33">
-        <f>O8-O7</f>
-        <v>12.896526800286267</v>
-      </c>
-      <c r="P9" s="39">
-        <f>P8-P7</f>
-        <v>12.824267777477985</v>
-      </c>
-      <c r="Q9" s="38">
-        <f>Q8-Q7</f>
-        <v>12.90331079691191</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="3"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="6"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="29"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <f>C6</f>
-        <v>25.617000000000001</v>
-      </c>
-      <c r="J11" s="11">
-        <f>C7</f>
-        <v>25.831</v>
-      </c>
-      <c r="K11" s="5">
-        <f>C8</f>
-        <v>25.597000000000001</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="13">
-        <v>2400</v>
-      </c>
-      <c r="J12" s="13">
-        <v>2400</v>
-      </c>
-      <c r="K12" s="6">
-        <v>2400</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="32">
-        <v>2.62</v>
-      </c>
-      <c r="P12" s="32">
-        <v>2.62</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="22">
-        <f>20*LOG10(I11*1000)+20*LOG10(I12*1000000)-147.558</f>
-        <v>128.21679019975687</v>
-      </c>
-      <c r="J13" s="22">
-        <f>20*LOG10(J11*1000)+20*LOG10(J12*1000000)-147.558</f>
-        <v>128.28904922256515</v>
-      </c>
-      <c r="K13" s="21">
-        <f>20*LOG10(K11*1000)+20*LOG10(K12*1000000)-147.558</f>
-        <v>128.21000620313123</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="P13" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="39">
-        <f>O9-O11-O12-O13</f>
-        <v>6.7765268002862662</v>
-      </c>
-      <c r="P14" s="39">
-        <f>P9-P12-P13</f>
-        <v>6.704267777477984</v>
-      </c>
-      <c r="Q14" s="38">
-        <f>Q9-Q12-Q13</f>
-        <v>6.7833107969119091</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="6"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="11">
-        <v>16</v>
-      </c>
-      <c r="J16" s="11">
-        <v>16</v>
-      </c>
-      <c r="K16" s="5">
-        <v>16</v>
-      </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-    </row>
-    <row r="17" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="40">
-        <f>I7+I8-I9-I13+I16</f>
-        <v>-89.216790199756872</v>
-      </c>
-      <c r="J17" s="40">
-        <f>J7+J8-J9-J13+J16</f>
-        <v>-89.289049222565154</v>
-      </c>
-      <c r="K17" s="41">
-        <f>K7+K8-K9-K13+K16</f>
-        <v>-89.210006203131229</v>
-      </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-    </row>
-    <row r="18" spans="8:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="2"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="6"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="13">
-        <v>23</v>
-      </c>
-      <c r="J20" s="13">
-        <v>23</v>
-      </c>
-      <c r="K20" s="6">
-        <v>23</v>
-      </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="13">
-        <v>3</v>
-      </c>
-      <c r="J21" s="13">
-        <v>3</v>
-      </c>
-      <c r="K21" s="6">
-        <v>3</v>
-      </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-    </row>
-    <row r="22" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="20">
-        <f>I17-I19+I20-I21</f>
-        <v>-70.816790199756866</v>
-      </c>
-      <c r="J22" s="20">
-        <f>J17-J19+J20-J21</f>
-        <v>-70.889049222565149</v>
-      </c>
-      <c r="K22" s="23">
-        <f>K17-K19+K20-K21</f>
-        <v>-70.810006203131223</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-    </row>
-    <row r="23" spans="8:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="3"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="6"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11">
-        <v>3</v>
-      </c>
-      <c r="J24" s="11">
-        <v>3</v>
-      </c>
-      <c r="K24" s="5">
-        <v>3</v>
-      </c>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-    </row>
-    <row r="25" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="20">
-        <f>I22-I24</f>
-        <v>-73.816790199756866</v>
-      </c>
-      <c r="J25" s="20">
-        <f>J22-J24</f>
-        <v>-73.889049222565149</v>
-      </c>
-      <c r="K25" s="23">
-        <f>K22-K24</f>
-        <v>-73.810006203131223</v>
-      </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-    </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-    </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-    </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>35</v>
+      <c r="J30" s="63">
+        <f>'Link Budget'!H28</f>
+        <v>-14.810006203131223</v>
+      </c>
+      <c r="K30" s="96">
+        <f>E30</f>
+        <v>-23.169775640620504</v>
+      </c>
+      <c r="L30" s="102">
+        <f t="shared" si="0"/>
+        <v>8.3597694374892804</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B3:E3"/>
+  <mergeCells count="1">
+    <mergeCell ref="I2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B98059-188F-452D-BB29-2FB91CE5B526}">
+  <dimension ref="B1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="143" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="J1" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="157" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="163">
+        <v>-60</v>
+      </c>
+      <c r="C6" s="164">
+        <v>65</v>
+      </c>
+      <c r="D6" s="165">
+        <f t="shared" ref="D6" si="0">B6+C6</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="166">
+        <v>500223</v>
+      </c>
+      <c r="F6" s="167">
+        <f t="shared" ref="F6:F15" si="1">10*LOG10(E6)</f>
+        <v>56.991636564937252</v>
+      </c>
+      <c r="G6" s="168">
+        <v>1211</v>
+      </c>
+      <c r="J6" s="152">
+        <v>73</v>
+      </c>
+      <c r="K6" s="148">
+        <v>838</v>
+      </c>
+      <c r="L6" s="149">
+        <f t="shared" ref="L6:L10" si="2">10*LOG10(K6)</f>
+        <v>29.232440186302764</v>
+      </c>
+      <c r="M6" s="150">
+        <v>150</v>
+      </c>
+      <c r="N6" s="95">
+        <f>(L6-52.9106)/0.9767</f>
+        <v>-24.24302223169575</v>
+      </c>
+      <c r="O6" s="159">
+        <f>N6-J6</f>
+        <v>-97.243022231695747</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="109">
+        <v>-60</v>
+      </c>
+      <c r="C7" s="110">
+        <v>60</v>
+      </c>
+      <c r="D7" s="111">
+        <f>B7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="112">
+        <v>205969</v>
+      </c>
+      <c r="F7" s="113">
+        <f>10*LOG10(E7)</f>
+        <v>53.138018604563229</v>
+      </c>
+      <c r="G7" s="114">
+        <v>672</v>
+      </c>
+      <c r="J7" s="152">
+        <v>70</v>
+      </c>
+      <c r="K7" s="148">
+        <v>355</v>
+      </c>
+      <c r="L7" s="149">
+        <f>10*LOG10(K7)</f>
+        <v>25.50228353055094</v>
+      </c>
+      <c r="M7" s="150">
+        <v>105</v>
+      </c>
+      <c r="N7" s="95">
+        <f t="shared" ref="N7:N11" si="3">(L7-52.9106)/0.9767</f>
+        <v>-28.062164911896243</v>
+      </c>
+      <c r="O7" s="95">
+        <f t="shared" ref="O7:O11" si="4">N7-J7</f>
+        <v>-98.062164911896247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="115">
+        <v>-60</v>
+      </c>
+      <c r="C8" s="116">
+        <v>55</v>
+      </c>
+      <c r="D8" s="117">
+        <f>B8+C8</f>
+        <v>-5</v>
+      </c>
+      <c r="E8" s="118">
+        <v>65946</v>
+      </c>
+      <c r="F8" s="119">
+        <f>10*LOG10(E8)</f>
+        <v>48.191884582506717</v>
+      </c>
+      <c r="G8" s="120">
+        <v>380</v>
+      </c>
+      <c r="J8" s="152">
+        <v>65</v>
+      </c>
+      <c r="K8" s="148">
+        <v>114</v>
+      </c>
+      <c r="L8" s="149">
+        <f>10*LOG10(K8)</f>
+        <v>20.569048513364727</v>
+      </c>
+      <c r="M8" s="150">
+        <v>61</v>
+      </c>
+      <c r="N8" s="95">
+        <f t="shared" si="3"/>
+        <v>-33.113086399749434</v>
+      </c>
+      <c r="O8" s="95">
+        <f t="shared" si="4"/>
+        <v>-98.113086399749434</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="169">
+        <v>-60</v>
+      </c>
+      <c r="C9" s="170">
+        <v>50</v>
+      </c>
+      <c r="D9" s="171">
+        <f>B9+C9</f>
+        <v>-10</v>
+      </c>
+      <c r="E9" s="172">
+        <v>21740</v>
+      </c>
+      <c r="F9" s="173">
+        <f>10*LOG10(E9)</f>
+        <v>43.372595397502764</v>
+      </c>
+      <c r="G9" s="174">
+        <v>220</v>
+      </c>
+      <c r="J9" s="152">
+        <v>60</v>
+      </c>
+      <c r="K9" s="148">
+        <v>49.5</v>
+      </c>
+      <c r="L9" s="149">
+        <f>10*LOG10(K9)</f>
+        <v>16.946051989335686</v>
+      </c>
+      <c r="M9" s="150">
+        <v>37</v>
+      </c>
+      <c r="N9" s="95">
+        <f t="shared" si="3"/>
+        <v>-36.822512553152777</v>
+      </c>
+      <c r="O9" s="95">
+        <f t="shared" si="4"/>
+        <v>-96.822512553152777</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="163">
+        <v>-65</v>
+      </c>
+      <c r="C10" s="164">
+        <v>70</v>
+      </c>
+      <c r="D10" s="165">
+        <f t="shared" ref="D10" si="5">B10+C10</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="166">
+        <v>636408</v>
+      </c>
+      <c r="F10" s="167">
+        <f t="shared" si="1"/>
+        <v>58.037356303303227</v>
+      </c>
+      <c r="G10" s="168">
+        <v>1222</v>
+      </c>
+      <c r="J10" s="152">
+        <v>55</v>
+      </c>
+      <c r="K10" s="148">
+        <v>17</v>
+      </c>
+      <c r="L10" s="149">
+        <f t="shared" si="2"/>
+        <v>12.304489213782739</v>
+      </c>
+      <c r="M10" s="150">
+        <v>21</v>
+      </c>
+      <c r="N10" s="95">
+        <f t="shared" si="3"/>
+        <v>-41.574803712723728</v>
+      </c>
+      <c r="O10" s="95">
+        <f t="shared" si="4"/>
+        <v>-96.574803712723735</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="109">
+        <v>-65</v>
+      </c>
+      <c r="C11" s="110">
+        <v>65</v>
+      </c>
+      <c r="D11" s="111">
+        <v>0</v>
+      </c>
+      <c r="E11" s="112">
+        <v>212424</v>
+      </c>
+      <c r="F11" s="113">
+        <f>10*LOG10(E11)</f>
+        <v>53.272035824599783</v>
+      </c>
+      <c r="G11" s="114">
+        <v>698</v>
+      </c>
+      <c r="J11" s="153">
+        <v>50</v>
+      </c>
+      <c r="K11" s="154">
+        <v>7.36</v>
+      </c>
+      <c r="L11" s="155">
+        <f>10*LOG10(K11)</f>
+        <v>8.6687781433749898</v>
+      </c>
+      <c r="M11" s="156">
+        <v>13</v>
+      </c>
+      <c r="N11" s="96">
+        <f t="shared" si="3"/>
+        <v>-45.297247728703809</v>
+      </c>
+      <c r="O11" s="96">
+        <f t="shared" si="4"/>
+        <v>-95.297247728703809</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="115">
+        <v>-65</v>
+      </c>
+      <c r="C12" s="116">
+        <v>60</v>
+      </c>
+      <c r="D12" s="117">
+        <f>B12+C12</f>
+        <v>-5</v>
+      </c>
+      <c r="E12" s="118">
+        <v>64371</v>
+      </c>
+      <c r="F12" s="119">
+        <f>10*LOG10(E12)</f>
+        <v>48.086902559226388</v>
+      </c>
+      <c r="G12" s="120">
+        <v>391</v>
+      </c>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="160">
+        <f>AVERAGE(O6:O11)</f>
+        <v>-97.018806256320275</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="121">
+        <v>-65</v>
+      </c>
+      <c r="C13" s="122">
+        <v>55</v>
+      </c>
+      <c r="D13" s="123">
+        <f>B13+C13</f>
+        <v>-10</v>
+      </c>
+      <c r="E13" s="124">
+        <v>20630</v>
+      </c>
+      <c r="F13" s="125">
+        <f>10*LOG10(E13)</f>
+        <v>43.144992279731518</v>
+      </c>
+      <c r="G13" s="126">
+        <v>220</v>
+      </c>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="147"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="175">
+        <v>-65</v>
+      </c>
+      <c r="C14" s="176">
+        <v>50</v>
+      </c>
+      <c r="D14" s="177">
+        <f>B14+C14</f>
+        <v>-15</v>
+      </c>
+      <c r="E14" s="178">
+        <v>6879</v>
+      </c>
+      <c r="F14" s="179">
+        <f>10*LOG10(E14)</f>
+        <v>38.375253094496017</v>
+      </c>
+      <c r="G14" s="180">
+        <v>129</v>
+      </c>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="109">
+        <v>-70</v>
+      </c>
+      <c r="C15" s="110">
+        <v>70</v>
+      </c>
+      <c r="D15" s="111">
+        <f>B15+C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="112">
+        <v>199693</v>
+      </c>
+      <c r="F15" s="113">
+        <f t="shared" si="1"/>
+        <v>53.003628414623122</v>
+      </c>
+      <c r="G15" s="114">
+        <v>721</v>
+      </c>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="115">
+        <v>-70</v>
+      </c>
+      <c r="C16" s="116">
+        <v>65</v>
+      </c>
+      <c r="D16" s="117">
+        <f t="shared" ref="D16:D19" si="6">B16+C16</f>
+        <v>-5</v>
+      </c>
+      <c r="E16" s="118">
+        <v>64219</v>
+      </c>
+      <c r="F16" s="119">
+        <f>10*LOG10(E16)</f>
+        <v>48.076635385730057</v>
+      </c>
+      <c r="G16" s="120">
+        <v>418</v>
+      </c>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="147"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="121">
+        <v>-70</v>
+      </c>
+      <c r="C17" s="122">
+        <v>60</v>
+      </c>
+      <c r="D17" s="123">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="E17" s="124">
+        <v>21412</v>
+      </c>
+      <c r="F17" s="125">
+        <f>10*LOG10(E17)</f>
+        <v>43.306572347113942</v>
+      </c>
+      <c r="G17" s="126">
+        <v>238</v>
+      </c>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="127">
+        <v>-70</v>
+      </c>
+      <c r="C18" s="128">
+        <v>55</v>
+      </c>
+      <c r="D18" s="129">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="E18" s="130">
+        <v>6420</v>
+      </c>
+      <c r="F18" s="131">
+        <f>10*LOG10(E18)</f>
+        <v>38.075350280688532</v>
+      </c>
+      <c r="G18" s="132">
+        <v>117</v>
+      </c>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="133">
+        <v>-70</v>
+      </c>
+      <c r="C19" s="134">
+        <v>50</v>
+      </c>
+      <c r="D19" s="135">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="E19" s="136">
+        <v>2107</v>
+      </c>
+      <c r="F19" s="137">
+        <f>10*LOG10(E19)</f>
+        <v>33.236645356080999</v>
+      </c>
+      <c r="G19" s="138">
+        <v>76</v>
+      </c>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+    </row>
+    <row r="22" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="72">
+        <v>5</v>
+      </c>
+      <c r="C24" s="140">
+        <f>(F6+F10)/2</f>
+        <v>57.51449643412024</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="74">
+        <v>0</v>
+      </c>
+      <c r="C25" s="141">
+        <f>(F7+F11+F15)/3</f>
+        <v>53.137894281262049</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="74">
+        <v>-5</v>
+      </c>
+      <c r="C26" s="141">
+        <f>(F8+F12+F16)/3</f>
+        <v>48.118474175821056</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="74">
+        <v>-10</v>
+      </c>
+      <c r="C27" s="141">
+        <f>(F9+F13+F17)/3</f>
+        <v>43.27472000811607</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="74">
+        <v>-15</v>
+      </c>
+      <c r="C28" s="141">
+        <f>(F14+F18)/2</f>
+        <v>38.225301687592278</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="77">
+        <v>-20</v>
+      </c>
+      <c r="C29" s="142">
+        <f>F19</f>
+        <v>33.236645356080999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="J1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/model/System Model/System Model.xlsx
+++ b/model/System Model/System Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\IIB Project\System Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\iib-project\model\System Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189301D1-0170-43BE-A3D1-ABB88037BFA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B8F22-4321-4E76-92A2-1C1D9EFE19E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{2E20499A-CF7D-441A-9B23-3C755E67DBA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2E20499A-CF7D-441A-9B23-3C755E67DBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="System Blocks" sheetId="2" r:id="rId1"/>
@@ -805,15 +805,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,15 +1046,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,9 +1155,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1227,64 +1206,85 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3502,18 +3502,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3529,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C58272F-101F-4B99-AF78-72AA6E441E3F}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,27 +3542,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="D3"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3573,486 +3573,489 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>100</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="25">
         <v>100</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="69">
         <v>100</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="77">
         <v>100</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <f>10*LOG(C5,10)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f>10*LOG(D5,10)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="70">
         <f>10*LOG(F5,10)</f>
         <v>20</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="78">
         <f>10*LOG(G5,10)</f>
         <v>20</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <f>10*LOG(H5,10)</f>
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>3</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="71">
         <v>3</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="79">
         <v>3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="71">
         <v>1</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="79">
         <v>1</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="28">
         <f>C6+C7-C8</f>
         <v>22</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <f>D6+D7-D8</f>
         <v>22</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="72">
         <f>F6+F7-F8</f>
         <v>22</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="80">
         <f>G6+G7-G8</f>
         <v>22</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <f>H6+H7-H8</f>
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="20"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="20"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="25">
         <v>30</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="69">
         <v>25.617000000000001</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="77">
         <v>25.821000000000002</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="25">
         <v>25.597000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>2400</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>2400</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="71">
         <v>2400</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="79">
         <v>2400</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>2400</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <f>20*LOG10(C11*1000)+20*LOG10(C12*1000000)-147.558</f>
         <v>100.04622483423213</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <f>20*LOG10(D11*1000)+20*LOG10(D12*1000000)-147.558</f>
         <v>129.58864992862539</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="73">
         <f>20*LOG10(F11*1000)+20*LOG10(F12*1000000)-147.558</f>
         <v>128.21679019975687</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="81">
         <f>20*LOG10(G11*1000)+20*LOG10(G12*1000000)-147.558</f>
         <v>128.28568598793856</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <f>20*LOG10(H11*1000)+20*LOG10(H12*1000000)-147.558</f>
         <v>128.21000620313123</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="31">
         <v>0</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="32">
         <v>0</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="74">
         <v>0</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="82">
         <v>0</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="24"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="21"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="26">
         <f>C9-C13</f>
         <v>-78.046224834232135</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <f>D9-D13</f>
         <v>-107.58864992862539</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="70">
         <f>F9-F13</f>
         <v>-106.21679019975687</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="78">
         <f>G9-G13</f>
         <v>-106.28568598793856</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="22">
         <f>H9-H13</f>
         <v>-106.21000620313123</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="27">
         <v>16</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>16</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="71">
         <v>16</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="79">
         <v>16</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <f>C16+C17</f>
         <v>-62.046224834232135</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <f>D16+D17</f>
         <v>-91.588649928625387</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="70">
         <f>F16+F17</f>
         <v>-90.216790199756872</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="78">
         <f>G16+G17</f>
         <v>-90.285685987938564</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="22">
         <f>H16+H17</f>
         <v>-90.210006203131229</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="24"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="24"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <f>C18</f>
         <v>-62.046224834232135</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="22">
         <f>D18</f>
         <v>-91.588649928625387</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="70">
         <f>F18</f>
         <v>-90.216790199756872</v>
       </c>
-      <c r="G20" s="81">
+      <c r="G20" s="78">
         <f>G18</f>
         <v>-90.285685987938564</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="22">
         <f>H18</f>
         <v>-90.210006203131229</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <v>23</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <v>23</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="71">
         <v>23</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="79">
         <v>23</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="27">
         <v>1.6</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <v>1.6</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="71">
         <v>1.6</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="79">
         <v>1.6</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="17">
         <v>1.6</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <v>1</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="71">
         <v>1</v>
       </c>
-      <c r="G23" s="82">
+      <c r="G23" s="79">
         <v>1</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="26">
         <f>C20+C21-C22-C23</f>
         <v>-41.646224834232136</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="22">
         <f>D20+D21-D22-D23</f>
         <v>-71.188649928625381</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="70">
         <f>F20+F21-F22-F23</f>
         <v>-69.816790199756866</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="78">
         <f>G20+G21-G22-G23</f>
         <v>-69.885685987938558</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="22">
         <f>H20+H21-H22-H23</f>
         <v>-69.810006203131223</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="24"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="24"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="21"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="26">
         <f>C24</f>
         <v>-41.646224834232136</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <f>D24</f>
         <v>-71.188649928625381</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="70">
         <f>F24</f>
         <v>-69.816790199756866</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="78">
         <f>G24</f>
         <v>-69.885685987938558</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <f>H24</f>
         <v>-69.810006203131223</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="27">
         <v>55</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="17">
         <v>55</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="71">
+        <f>D27</f>
         <v>55</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="79">
+        <f>D27</f>
         <v>55</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="17">
+        <f>D27</f>
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="34">
         <f>C26+C27</f>
         <v>13.353775165767864</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="23">
         <f>D26+D27</f>
         <v>-16.188649928625381</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="76">
         <f>F26+F27</f>
         <v>-14.816790199756866</v>
       </c>
-      <c r="G28" s="87">
+      <c r="G28" s="84">
         <f>G26+G27</f>
         <v>-14.885685987938558</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="23">
         <f>H26+H27</f>
         <v>-14.810006203131223</v>
       </c>
@@ -4070,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DD661-5A70-43C1-A29A-3078B8E22ACC}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,384 +4091,385 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
     </row>
     <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="51">
         <f>POWER(10, 0.1*E6)</f>
         <v>199.52623149688819</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="18">
+      <c r="D6" s="46"/>
+      <c r="E6" s="15">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="51">
         <f>POWER(10, 0.1*E7)</f>
         <v>1.8281002161427427</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="18">
+      <c r="D7" s="46"/>
+      <c r="E7" s="15">
         <v>2.62</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="52">
         <f>290*(C7-1)</f>
         <v>240.14906268139538</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="51">
         <f>POWER(10, 0.1*E10)</f>
         <v>0.69183097091893642</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="18">
+      <c r="D10" s="46"/>
+      <c r="E10" s="15">
         <v>-1.6</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="51">
         <f>POWER(10, 0.1*E11)</f>
         <v>1.4454397707459277</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="18">
+      <c r="D11" s="46"/>
+      <c r="E11" s="15">
         <v>1.6</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="52">
         <f>290*(C11-1)</f>
         <v>129.17753351631902</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="51">
         <f>POWER(10, 0.1*E14)</f>
         <v>316227.7660168382</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="18">
+      <c r="D14" s="46"/>
+      <c r="E14" s="15">
+        <f>'Link Budget'!D27</f>
         <v>55</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="51">
         <f>POWER(10, 0.1*E15)</f>
         <v>2.2387211385683399</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="18">
+      <c r="D15" s="46"/>
+      <c r="E15" s="15">
         <v>3.5</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="54">
         <f>290*(C15-1)</f>
         <v>359.22913018481859</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="52">
         <f>POWER(10, 0.1*E21)</f>
         <v>43651583.224016666</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="55">
+      <c r="D21" s="47"/>
+      <c r="E21" s="52">
         <f>E6+E10+E14</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="65">
         <f>C7+((C11-1)/C6)+((C15-1)/(C10*C6))</f>
         <v>1.8393064447800593</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="68">
+      <c r="D22" s="66"/>
+      <c r="E22" s="65">
         <f>10*LOG10(C22)</f>
         <v>2.6465409258207488</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="54">
         <f>290*(C22-1)</f>
         <v>243.3988689862172</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="26" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="I26" s="162" t="s">
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="I26" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="45"/>
-      <c r="I27" s="97" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="42"/>
+      <c r="I27" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="98" t="s">
+      <c r="J27" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="97" t="s">
+      <c r="K27" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="99" t="s">
+      <c r="L27" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="62">
         <v>290</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="46"/>
-      <c r="I28" s="93">
+      <c r="E28" s="59"/>
+      <c r="F28" s="43"/>
+      <c r="I28" s="90">
         <v>1</v>
       </c>
-      <c r="J28" s="100">
+      <c r="J28" s="97">
         <f>'Link Budget'!F28</f>
         <v>-14.816790199756866</v>
       </c>
-      <c r="K28" s="95">
+      <c r="K28" s="92">
         <f>E30</f>
         <v>-23.169775640620504</v>
       </c>
-      <c r="L28" s="101">
+      <c r="L28" s="98">
         <f>J28-K28</f>
         <v>8.3529854408636375</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="91">
+      <c r="C29" s="88">
         <f>(1.38E-23)*C28*15000000*1000</f>
         <v>6.0030000000000011E-11</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="89">
         <f>10*LOG10(C29)</f>
         <v>-102.21631656644126</v>
       </c>
-      <c r="F29" s="90" t="s">
+      <c r="F29" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I29" s="90">
         <v>2</v>
       </c>
-      <c r="J29" s="100">
+      <c r="J29" s="97">
         <f>'Link Budget'!G28</f>
         <v>-14.885685987938558</v>
       </c>
-      <c r="K29" s="95">
+      <c r="K29" s="92">
         <f>E30</f>
         <v>-23.169775640620504</v>
       </c>
-      <c r="L29" s="101">
+      <c r="L29" s="98">
         <f t="shared" ref="L29:L30" si="0">J29-K29</f>
         <v>8.2840896526819456</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="63">
         <f>(1.38E-23)*(C28+C23)*15000000*C21*1000</f>
         <v>4.8197269600776822E-3</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="61">
         <f>10*LOG10(C30)</f>
         <v>-23.169775640620504</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="94">
+      <c r="I30" s="91">
         <v>3</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="60">
         <f>'Link Budget'!H28</f>
         <v>-14.810006203131223</v>
       </c>
-      <c r="K30" s="96">
+      <c r="K30" s="93">
         <f>E30</f>
         <v>-23.169775640620504</v>
       </c>
-      <c r="L30" s="102">
+      <c r="L30" s="99">
         <f t="shared" si="0"/>
         <v>8.3597694374892804</v>
       </c>
@@ -4499,620 +4503,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="J1" s="143" t="s">
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="J1" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="179"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="179"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="157" t="s">
+      <c r="N5" s="150" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="163">
+      <c r="B6" s="155">
         <v>-60</v>
       </c>
-      <c r="C6" s="164">
+      <c r="C6" s="156">
         <v>65</v>
       </c>
-      <c r="D6" s="165">
+      <c r="D6" s="157">
         <f t="shared" ref="D6" si="0">B6+C6</f>
         <v>5</v>
       </c>
-      <c r="E6" s="166">
+      <c r="E6" s="158">
         <v>500223</v>
       </c>
-      <c r="F6" s="167">
+      <c r="F6" s="159">
         <f t="shared" ref="F6:F15" si="1">10*LOG10(E6)</f>
         <v>56.991636564937252</v>
       </c>
-      <c r="G6" s="168">
+      <c r="G6" s="160">
         <v>1211</v>
       </c>
-      <c r="J6" s="152">
+      <c r="J6" s="145">
         <v>73</v>
       </c>
-      <c r="K6" s="148">
+      <c r="K6" s="141">
         <v>838</v>
       </c>
-      <c r="L6" s="149">
+      <c r="L6" s="142">
         <f t="shared" ref="L6:L10" si="2">10*LOG10(K6)</f>
         <v>29.232440186302764</v>
       </c>
-      <c r="M6" s="150">
+      <c r="M6" s="143">
         <v>150</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="92">
         <f>(L6-52.9106)/0.9767</f>
         <v>-24.24302223169575</v>
       </c>
-      <c r="O6" s="159">
+      <c r="O6" s="152">
         <f>N6-J6</f>
         <v>-97.243022231695747</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="109">
+      <c r="B7" s="103">
         <v>-60</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="104">
         <v>60</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="105">
         <f>B7+C7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="112">
+      <c r="E7" s="106">
         <v>205969</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="107">
         <f>10*LOG10(E7)</f>
         <v>53.138018604563229</v>
       </c>
-      <c r="G7" s="114">
+      <c r="G7" s="108">
         <v>672</v>
       </c>
-      <c r="J7" s="152">
+      <c r="J7" s="145">
         <v>70</v>
       </c>
-      <c r="K7" s="148">
+      <c r="K7" s="141">
         <v>355</v>
       </c>
-      <c r="L7" s="149">
+      <c r="L7" s="142">
         <f>10*LOG10(K7)</f>
         <v>25.50228353055094</v>
       </c>
-      <c r="M7" s="150">
+      <c r="M7" s="143">
         <v>105</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="92">
         <f t="shared" ref="N7:N11" si="3">(L7-52.9106)/0.9767</f>
         <v>-28.062164911896243</v>
       </c>
-      <c r="O7" s="95">
+      <c r="O7" s="92">
         <f t="shared" ref="O7:O11" si="4">N7-J7</f>
         <v>-98.062164911896247</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="115">
+      <c r="B8" s="109">
         <v>-60</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="110">
         <v>55</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="111">
         <f>B8+C8</f>
         <v>-5</v>
       </c>
-      <c r="E8" s="118">
+      <c r="E8" s="112">
         <v>65946</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="113">
         <f>10*LOG10(E8)</f>
         <v>48.191884582506717</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="114">
         <v>380</v>
       </c>
-      <c r="J8" s="152">
+      <c r="J8" s="145">
         <v>65</v>
       </c>
-      <c r="K8" s="148">
+      <c r="K8" s="141">
         <v>114</v>
       </c>
-      <c r="L8" s="149">
+      <c r="L8" s="142">
         <f>10*LOG10(K8)</f>
         <v>20.569048513364727</v>
       </c>
-      <c r="M8" s="150">
+      <c r="M8" s="143">
         <v>61</v>
       </c>
-      <c r="N8" s="95">
+      <c r="N8" s="92">
         <f t="shared" si="3"/>
         <v>-33.113086399749434</v>
       </c>
-      <c r="O8" s="95">
+      <c r="O8" s="92">
         <f t="shared" si="4"/>
         <v>-98.113086399749434</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="169">
+      <c r="B9" s="161">
         <v>-60</v>
       </c>
-      <c r="C9" s="170">
+      <c r="C9" s="162">
         <v>50</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="163">
         <f>B9+C9</f>
         <v>-10</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="164">
         <v>21740</v>
       </c>
-      <c r="F9" s="173">
+      <c r="F9" s="165">
         <f>10*LOG10(E9)</f>
         <v>43.372595397502764</v>
       </c>
-      <c r="G9" s="174">
+      <c r="G9" s="166">
         <v>220</v>
       </c>
-      <c r="J9" s="152">
+      <c r="J9" s="145">
         <v>60</v>
       </c>
-      <c r="K9" s="148">
+      <c r="K9" s="141">
         <v>49.5</v>
       </c>
-      <c r="L9" s="149">
+      <c r="L9" s="142">
         <f>10*LOG10(K9)</f>
         <v>16.946051989335686</v>
       </c>
-      <c r="M9" s="150">
+      <c r="M9" s="143">
         <v>37</v>
       </c>
-      <c r="N9" s="95">
+      <c r="N9" s="92">
         <f t="shared" si="3"/>
         <v>-36.822512553152777</v>
       </c>
-      <c r="O9" s="95">
+      <c r="O9" s="92">
         <f t="shared" si="4"/>
         <v>-96.822512553152777</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="163">
+      <c r="B10" s="155">
         <v>-65</v>
       </c>
-      <c r="C10" s="164">
+      <c r="C10" s="156">
         <v>70</v>
       </c>
-      <c r="D10" s="165">
+      <c r="D10" s="157">
         <f t="shared" ref="D10" si="5">B10+C10</f>
         <v>5</v>
       </c>
-      <c r="E10" s="166">
+      <c r="E10" s="158">
         <v>636408</v>
       </c>
-      <c r="F10" s="167">
+      <c r="F10" s="159">
         <f t="shared" si="1"/>
         <v>58.037356303303227</v>
       </c>
-      <c r="G10" s="168">
+      <c r="G10" s="160">
         <v>1222</v>
       </c>
-      <c r="J10" s="152">
+      <c r="J10" s="145">
         <v>55</v>
       </c>
-      <c r="K10" s="148">
+      <c r="K10" s="141">
         <v>17</v>
       </c>
-      <c r="L10" s="149">
+      <c r="L10" s="142">
         <f t="shared" si="2"/>
         <v>12.304489213782739</v>
       </c>
-      <c r="M10" s="150">
+      <c r="M10" s="143">
         <v>21</v>
       </c>
-      <c r="N10" s="95">
+      <c r="N10" s="92">
         <f t="shared" si="3"/>
         <v>-41.574803712723728</v>
       </c>
-      <c r="O10" s="95">
+      <c r="O10" s="92">
         <f t="shared" si="4"/>
         <v>-96.574803712723735</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109">
+      <c r="B11" s="103">
         <v>-65</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="104">
         <v>65</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="105">
         <v>0</v>
       </c>
-      <c r="E11" s="112">
+      <c r="E11" s="106">
         <v>212424</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="107">
         <f>10*LOG10(E11)</f>
         <v>53.272035824599783</v>
       </c>
-      <c r="G11" s="114">
+      <c r="G11" s="108">
         <v>698</v>
       </c>
-      <c r="J11" s="153">
+      <c r="J11" s="146">
         <v>50</v>
       </c>
-      <c r="K11" s="154">
+      <c r="K11" s="147">
         <v>7.36</v>
       </c>
-      <c r="L11" s="155">
+      <c r="L11" s="148">
         <f>10*LOG10(K11)</f>
         <v>8.6687781433749898</v>
       </c>
-      <c r="M11" s="156">
+      <c r="M11" s="149">
         <v>13</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="93">
         <f t="shared" si="3"/>
         <v>-45.297247728703809</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="93">
         <f t="shared" si="4"/>
         <v>-95.297247728703809</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="115">
+      <c r="B12" s="109">
         <v>-65</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="110">
         <v>60</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="111">
         <f>B12+C12</f>
         <v>-5</v>
       </c>
-      <c r="E12" s="118">
+      <c r="E12" s="112">
         <v>64371</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="113">
         <f>10*LOG10(E12)</f>
         <v>48.086902559226388</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="114">
         <v>391</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="158" t="s">
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="160">
+      <c r="O12" s="153">
         <f>AVERAGE(O6:O11)</f>
         <v>-97.018806256320275</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="121">
+      <c r="B13" s="115">
         <v>-65</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="116">
         <v>55</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="117">
         <f>B13+C13</f>
         <v>-10</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="118">
         <v>20630</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="119">
         <f>10*LOG10(E13)</f>
         <v>43.144992279731518</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="120">
         <v>220</v>
       </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="147"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="140"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="175">
+      <c r="B14" s="167">
         <v>-65</v>
       </c>
-      <c r="C14" s="176">
+      <c r="C14" s="168">
         <v>50</v>
       </c>
-      <c r="D14" s="177">
+      <c r="D14" s="169">
         <f>B14+C14</f>
         <v>-15</v>
       </c>
-      <c r="E14" s="178">
+      <c r="E14" s="170">
         <v>6879</v>
       </c>
-      <c r="F14" s="179">
+      <c r="F14" s="171">
         <f>10*LOG10(E14)</f>
         <v>38.375253094496017</v>
       </c>
-      <c r="G14" s="180">
+      <c r="G14" s="172">
         <v>129</v>
       </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="109">
+      <c r="B15" s="103">
         <v>-70</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="104">
         <v>70</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="105">
         <f>B15+C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="106">
         <v>199693</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="107">
         <f t="shared" si="1"/>
         <v>53.003628414623122</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="108">
         <v>721</v>
       </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="115">
+      <c r="B16" s="109">
         <v>-70</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="110">
         <v>65</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="111">
         <f t="shared" ref="D16:D19" si="6">B16+C16</f>
         <v>-5</v>
       </c>
-      <c r="E16" s="118">
+      <c r="E16" s="112">
         <v>64219</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="113">
         <f>10*LOG10(E16)</f>
         <v>48.076635385730057</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="114">
         <v>418</v>
       </c>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="147"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="121">
+      <c r="B17" s="115">
         <v>-70</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="116">
         <v>60</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="117">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="E17" s="124">
+      <c r="E17" s="118">
         <v>21412</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="119">
         <f>10*LOG10(E17)</f>
         <v>43.306572347113942</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="120">
         <v>238</v>
       </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="140"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="127">
+      <c r="B18" s="121">
         <v>-70</v>
       </c>
-      <c r="C18" s="128">
+      <c r="C18" s="122">
         <v>55</v>
       </c>
-      <c r="D18" s="129">
+      <c r="D18" s="123">
         <f t="shared" si="6"/>
         <v>-15</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="124">
         <v>6420</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="125">
         <f>10*LOG10(E18)</f>
         <v>38.075350280688532</v>
       </c>
-      <c r="G18" s="132">
+      <c r="G18" s="126">
         <v>117</v>
       </c>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="140"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="133">
+      <c r="B19" s="127">
         <v>-70</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="128">
         <v>50</v>
       </c>
-      <c r="D19" s="135">
+      <c r="D19" s="129">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="E19" s="136">
+      <c r="E19" s="130">
         <v>2107</v>
       </c>
-      <c r="F19" s="137">
+      <c r="F19" s="131">
         <f>10*LOG10(E19)</f>
         <v>33.236645356080999</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="132">
         <v>76</v>
       </c>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="140"/>
     </row>
     <row r="22" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="133" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="72">
+      <c r="B24" s="69">
         <v>5</v>
       </c>
-      <c r="C24" s="140">
+      <c r="C24" s="134">
         <f>(F6+F10)/2</f>
         <v>57.51449643412024</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="74">
+      <c r="B25" s="71">
         <v>0</v>
       </c>
-      <c r="C25" s="141">
+      <c r="C25" s="135">
         <f>(F7+F11+F15)/3</f>
         <v>53.137894281262049</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="74">
+      <c r="B26" s="71">
         <v>-5</v>
       </c>
-      <c r="C26" s="141">
+      <c r="C26" s="135">
         <f>(F8+F12+F16)/3</f>
         <v>48.118474175821056</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="74">
+      <c r="B27" s="71">
         <v>-10</v>
       </c>
-      <c r="C27" s="141">
+      <c r="C27" s="135">
         <f>(F9+F13+F17)/3</f>
         <v>43.27472000811607</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="74">
+      <c r="B28" s="71">
         <v>-15</v>
       </c>
-      <c r="C28" s="141">
+      <c r="C28" s="135">
         <f>(F14+F18)/2</f>
         <v>38.225301687592278</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="77">
+      <c r="B29" s="74">
         <v>-20</v>
       </c>
-      <c r="C29" s="142">
+      <c r="C29" s="136">
         <f>F19</f>
         <v>33.236645356080999</v>
       </c>
